--- a/biology/Médecine/Consentement_libre_et_éclairé_en_droit_français/Consentement_libre_et_éclairé_en_droit_français.xlsx
+++ b/biology/Médecine/Consentement_libre_et_éclairé_en_droit_français/Consentement_libre_et_éclairé_en_droit_français.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Consentement_libre_et_%C3%A9clair%C3%A9_en_droit_fran%C3%A7ais</t>
+          <t>Consentement_libre_et_éclairé_en_droit_français</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En droit français, le consentement du malade aux soins est une obligation consécutive au caractère contractuel de la relation médecin-malade. 
 La notion de consentement libre et éclairé, qui implique que le médecin est tenu de présenter clairement au citoyen tous les risques d'une conduite thérapeutique, est pourtant relativement récente.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Consentement_libre_et_%C3%A9clair%C3%A9_en_droit_fran%C3%A7ais</t>
+          <t>Consentement_libre_et_éclairé_en_droit_français</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,9 +529,11 @@
           <t>Principes du consentement éclairé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'intangibilité de l'intégrité corporelle de chaque personne et l'indisponibilité du corps humain sont des principes fondamentaux auxquels il ne peut être dérogé que par nécessité thérapeutique pour la personne et avec son consentement préalable. C'est pourquoi, aucun acte médical ne peut être pratiqué sans le consentement du citoyen, hors le cas où son état rend nécessaire cet acte auquel il n'est pas à même de consentir[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intangibilité de l'intégrité corporelle de chaque personne et l'indisponibilité du corps humain sont des principes fondamentaux auxquels il ne peut être dérogé que par nécessité thérapeutique pour la personne et avec son consentement préalable. C'est pourquoi, aucun acte médical ne peut être pratiqué sans le consentement du citoyen, hors le cas où son état rend nécessaire cet acte auquel il n'est pas à même de consentir.
 Ce consentement doit être libre et renouvelé pour tout acte médical ultérieur.
 Il doit être éclairé, c'est-à-dire que le citoyen doit avoir été préalablement informé des actes qu'il va subir, des risques normalement prévisibles en l'état des connaissances scientifiques et des conséquences que ceux-ci pourraient entraîner.
 Tout citoyen, informé par un praticien des risques encourus, peut refuser un acte de diagnostic ou un traitement, l'interrompre à tout moment à ses risques et périls. Il peut également estimer ne pas être suffisamment informé, souhaiter un délai de réflexion ou l'obtention d'un autre avis professionnel.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Consentement_libre_et_%C3%A9clair%C3%A9_en_droit_fran%C3%A7ais</t>
+          <t>Consentement_libre_et_éclairé_en_droit_français</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Du consentement spécifique pour certains actes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En plus du principe général du consentement préalable, des dispositions particulières s'appliquent dans des domaines particuliers dont le nombre ne cesse de croître, le législateur est intervenu pour rappeler la nécessité d'un consentement du citoyen avant l'exécution d'un acte médical et pour en fixer les modalités.
 La loi du 17 janvier 1975, modifiée par la loi du 4 juillet 2001 sur l'interruption volontaire de grossesse, précise les caractéristiques du consentement qui doit être donné par la femme concernée (art. L.2212-5 du code de la santé publique), le cas échéant, mineure (art. L.2212-7 du code de la santé publique).
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Consentement_libre_et_%C3%A9clair%C3%A9_en_droit_fran%C3%A7ais</t>
+          <t>Consentement_libre_et_éclairé_en_droit_français</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Article 36 de l'Ordre national des médecins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce chapitre n'est qu'un extrait, pour plus de détails, voir les commentaires intégraux en remplacement de l'« Article 94 - Partage des honoraires au sein d'un groupe ») de l'article 36 sur le site du conseil national des médecins.
 Article 36 (article R.4127-36 du code de la santé publique) (commentaires révisés en 2003) :
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Consentement_libre_et_%C3%A9clair%C3%A9_en_droit_fran%C3%A7ais</t>
+          <t>Consentement_libre_et_éclairé_en_droit_français</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,9 +653,11 @@
           <t>Soins sans consentement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est parfois nécessaire, lors des urgences médicales par exemple, mais aussi dans certaines affections psychiatriques[2], en respectant certains critères[3], notamment pour les mineurs[4]. En France, depuis la loi du 5 juillet 2011, un contrôle des hospitalisations complètes sans consentement doit être effectué par le juge des libertés et de la détention[5],[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est parfois nécessaire, lors des urgences médicales par exemple, mais aussi dans certaines affections psychiatriques, en respectant certains critères, notamment pour les mineurs. En France, depuis la loi du 5 juillet 2011, un contrôle des hospitalisations complètes sans consentement doit être effectué par le juge des libertés et de la détention,.
 </t>
         </is>
       </c>
